--- a/data-result/results-campaigns.xlsx
+++ b/data-result/results-campaigns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/BodyMeasurements/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B85073A-9BBE-DF40-9700-7E14E8756557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC7363-78B6-D044-A9F0-A48BECFB79B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="15500" xr2:uid="{BC55022D-C9CA-B946-A802-96155E458C4D}"/>
   </bookViews>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB03C220-F623-D149-AB9B-5D0901E8AA64}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1385,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="22">
         <v>4767068</v>
